--- a/data_year/zb/文化/广播电视节目播出时间.xlsx
+++ b/data_year/zb/文化/广播电视节目播出时间.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,990 +648,1040 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90451</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12240</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14421</v>
+      </c>
+      <c r="F2" t="n">
+        <v>236466</v>
+      </c>
+      <c r="G2" t="n">
+        <v>69066</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47615</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61361</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>9091</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52479</v>
+      </c>
+      <c r="M2" t="n">
+        <v>224266</v>
+      </c>
+      <c r="N2" t="n">
+        <v>67036</v>
+      </c>
+      <c r="O2" t="n">
+        <v>34299</v>
+      </c>
+      <c r="P2" t="n">
+        <v>574752</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2864889</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1912966</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1186617</v>
+      </c>
       <c r="T2" t="n">
-        <v>10780486</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+        <v>12660313.88</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2538907</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3582183</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1797376</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1768751</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2047070</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7274866</v>
+      </c>
       <c r="AA2" t="n">
-        <v>13604469</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+        <v>16355043.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2070314</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1396667</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>63551</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>475359</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>199730</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>278970</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1782537</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>294233</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>470694</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>357374</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>272226</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>307541</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>753615</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2098857</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>223985</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>184116</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2111.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>104759.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8836.68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15734.58333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>274575</v>
+      </c>
+      <c r="G3" t="n">
+        <v>85455.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>57677.57</v>
+      </c>
+      <c r="I3" t="n">
+        <v>80497</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>9120.17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53450.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>251909</v>
+      </c>
+      <c r="N3" t="n">
+        <v>68595</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40246.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>648230.67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3026825.48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1931814.03</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1224565.33</v>
+      </c>
       <c r="T3" t="n">
-        <v>11272365</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+        <v>13057495.95</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2650759.08</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3575301.35</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1942274.95</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1745512.22</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2010858.23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7364316.6</v>
+      </c>
       <c r="AA3" t="n">
-        <v>14546657</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+        <v>16753029.4166667</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2264317.95</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1425749.467</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>73039.42</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>510583.3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>189402.6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>262008.1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1827296</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>308748.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>483514.2</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>388521</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>231442.82</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>292542.5</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>809499</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2169379</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>285621</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>161754</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1277.5</v>
+        <v>2815</v>
       </c>
       <c r="C4" t="n">
-        <v>52535.1666666667</v>
+        <v>111099.083333333</v>
       </c>
       <c r="D4" t="n">
-        <v>11432.75</v>
+        <v>7614.5</v>
       </c>
       <c r="E4" t="n">
-        <v>6668.45</v>
+        <v>14984</v>
       </c>
       <c r="F4" t="n">
-        <v>148808.1</v>
+        <v>292062.666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>47791.4</v>
+        <v>91255.5833333333</v>
       </c>
       <c r="H4" t="n">
-        <v>29102.8333333333</v>
+        <v>64294.5</v>
       </c>
       <c r="I4" t="n">
-        <v>36934.5166666667</v>
+        <v>92092.5333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>902</v>
+        <v>2158</v>
       </c>
       <c r="K4" t="n">
-        <v>8587.76666666667</v>
+        <v>9301.283333333329</v>
       </c>
       <c r="L4" t="n">
-        <v>33871.95</v>
+        <v>56371.7333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>138738.183333333</v>
+        <v>268458.016666667</v>
       </c>
       <c r="N4" t="n">
-        <v>40601.4</v>
+        <v>67995.95</v>
       </c>
       <c r="O4" t="n">
-        <v>17840.55</v>
+        <v>40538.5166666667</v>
       </c>
       <c r="P4" t="n">
-        <v>506122.75</v>
+        <v>699153.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>2602136.23333333</v>
+        <v>3033050.13333333</v>
       </c>
       <c r="R4" t="n">
-        <v>1749647.73333333</v>
+        <v>2001769</v>
       </c>
       <c r="S4" t="n">
-        <v>1086299.46666667</v>
+        <v>1274835.96666667</v>
       </c>
       <c r="T4" t="n">
-        <v>11629729.1166667</v>
+        <v>13383650.9666667</v>
       </c>
       <c r="U4" t="n">
-        <v>2304020.61666667</v>
+        <v>2709968.35</v>
       </c>
       <c r="V4" t="n">
-        <v>3381502.31666667</v>
+        <v>3664874.36666667</v>
       </c>
       <c r="W4" t="n">
-        <v>1576236.33333333</v>
+        <v>2022170.66666667</v>
       </c>
       <c r="X4" t="n">
-        <v>1733803.48333333</v>
+        <v>1828114.16666667</v>
       </c>
       <c r="Y4" t="n">
-        <v>1986190.4</v>
+        <v>2017196.03333333</v>
       </c>
       <c r="Z4" t="n">
-        <v>6629025.78333333</v>
+        <v>7359529.91666667</v>
       </c>
       <c r="AA4" t="n">
-        <v>14953361.6166667</v>
+        <v>16985291.0333333</v>
       </c>
       <c r="AB4" t="n">
-        <v>1813994.78333333</v>
+        <v>2304049.25</v>
       </c>
       <c r="AC4" t="n">
-        <v>1214110.83333333</v>
+        <v>1454231</v>
       </c>
       <c r="AD4" t="n">
-        <v>52146.7833333333</v>
+        <v>73153.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>421578.15</v>
+        <v>501812.516666667</v>
       </c>
       <c r="AF4" t="n">
-        <v>211056.466666667</v>
+        <v>222246.166666667</v>
       </c>
       <c r="AG4" t="n">
-        <v>235721.033333333</v>
+        <v>281840.183333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1657004.48333333</v>
+        <v>1929158.28333333</v>
       </c>
       <c r="AI4" t="n">
-        <v>255292.55</v>
+        <v>311058.766666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>481209.5</v>
+        <v>539046.9</v>
       </c>
       <c r="AK4" t="n">
-        <v>326888.2</v>
+        <v>387178</v>
       </c>
       <c r="AL4" t="n">
-        <v>265280.75</v>
+        <v>285482.333333333</v>
       </c>
       <c r="AM4" t="n">
-        <v>331885.333333333</v>
+        <v>290431.783333333</v>
       </c>
       <c r="AN4" t="n">
-        <v>727592.566666667</v>
+        <v>799568.283333333</v>
       </c>
       <c r="AO4" t="n">
-        <v>1993202.46666667</v>
+        <v>2239345.61666667</v>
       </c>
       <c r="AP4" t="n">
-        <v>200379.183333333</v>
+        <v>299733.066666667</v>
       </c>
       <c r="AQ4" t="n">
-        <v>141176.433333333</v>
+        <v>176952.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2265</v>
+        <v>4686</v>
       </c>
       <c r="C5" t="n">
-        <v>60644.3</v>
+        <v>163562</v>
       </c>
       <c r="D5" t="n">
-        <v>8770.299999999999</v>
+        <v>4462</v>
       </c>
       <c r="E5" t="n">
-        <v>8412.15</v>
+        <v>16518</v>
       </c>
       <c r="F5" t="n">
-        <v>173114.916666667</v>
+        <v>432014</v>
       </c>
       <c r="G5" t="n">
-        <v>49502.3333333333</v>
+        <v>150205</v>
       </c>
       <c r="H5" t="n">
-        <v>43520.8333333333</v>
+        <v>92581</v>
       </c>
       <c r="I5" t="n">
-        <v>54963.9833333333</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>81855</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25137</v>
+      </c>
       <c r="K5" t="n">
-        <v>9082.700000000001</v>
+        <v>7490</v>
       </c>
       <c r="L5" t="n">
-        <v>37587.8166666667</v>
+        <v>48976</v>
       </c>
       <c r="M5" t="n">
-        <v>174313.633333333</v>
+        <v>270112</v>
       </c>
       <c r="N5" t="n">
-        <v>49851.8</v>
+        <v>69008</v>
       </c>
       <c r="O5" t="n">
-        <v>22827.3333333333</v>
+        <v>37646</v>
       </c>
       <c r="P5" t="n">
-        <v>538451.1</v>
+        <v>770085</v>
       </c>
       <c r="Q5" t="n">
-        <v>2738047.76666667</v>
+        <v>3108653</v>
       </c>
       <c r="R5" t="n">
-        <v>1942090.71666667</v>
+        <v>2104998</v>
       </c>
       <c r="S5" t="n">
-        <v>1135408.1</v>
+        <v>1259269</v>
       </c>
       <c r="T5" t="n">
-        <v>12265513.2166667</v>
+        <v>13795460.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2416269.03333333</v>
+        <v>2820087</v>
       </c>
       <c r="V5" t="n">
-        <v>3495246.5</v>
+        <v>3732369</v>
       </c>
       <c r="W5" t="n">
-        <v>1703188.66666667</v>
+        <v>2108917</v>
       </c>
       <c r="X5" t="n">
-        <v>1769951.06666667</v>
+        <v>1858964</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047041.48333333</v>
+        <v>1951125</v>
       </c>
       <c r="Z5" t="n">
-        <v>6982129.83333333</v>
+        <v>7366010</v>
       </c>
       <c r="AA5" t="n">
-        <v>15776767.1166667</v>
+        <v>17057211.72</v>
       </c>
       <c r="AB5" t="n">
-        <v>1959742.58333333</v>
+        <v>2352285</v>
       </c>
       <c r="AC5" t="n">
-        <v>1314713.48333333</v>
+        <v>1419911</v>
       </c>
       <c r="AD5" t="n">
-        <v>536186.1</v>
+        <v>89073</v>
       </c>
       <c r="AE5" t="n">
-        <v>2677403.46666667</v>
+        <v>499611</v>
       </c>
       <c r="AF5" t="n">
-        <v>1933320.41666667</v>
+        <v>232681</v>
       </c>
       <c r="AG5" t="n">
-        <v>1126995.95</v>
+        <v>279160</v>
       </c>
       <c r="AH5" t="n">
-        <v>12092398.3</v>
+        <v>1983499</v>
       </c>
       <c r="AI5" t="n">
-        <v>2366766.7</v>
+        <v>312154</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3451725.66666667</v>
+        <v>570820</v>
       </c>
       <c r="AK5" t="n">
-        <v>1648224.68333333</v>
+        <v>407454</v>
       </c>
       <c r="AL5" t="n">
-        <v>1769951</v>
+        <v>307368</v>
       </c>
       <c r="AM5" t="n">
-        <v>2037958.78333333</v>
+        <v>292015</v>
       </c>
       <c r="AN5" t="n">
-        <v>6944542.01666666</v>
+        <v>776080</v>
       </c>
       <c r="AO5" t="n">
-        <v>15602453.4833333</v>
+        <v>2237960</v>
       </c>
       <c r="AP5" t="n">
-        <v>1909890.78333333</v>
+        <v>293336</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1291886.15</v>
+        <v>161707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2674</v>
+        <v>10455</v>
       </c>
       <c r="C6" t="n">
-        <v>90451</v>
+        <v>135643</v>
       </c>
       <c r="D6" t="n">
-        <v>12240</v>
+        <v>15545</v>
       </c>
       <c r="E6" t="n">
-        <v>14421</v>
+        <v>14555</v>
       </c>
       <c r="F6" t="n">
-        <v>236466</v>
+        <v>342366</v>
       </c>
       <c r="G6" t="n">
-        <v>69066</v>
+        <v>107857</v>
       </c>
       <c r="H6" t="n">
-        <v>47615</v>
+        <v>58311</v>
       </c>
       <c r="I6" t="n">
-        <v>61361</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>85482.01666666671</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9926.566666666669</v>
+      </c>
       <c r="K6" t="n">
-        <v>9091</v>
+        <v>5019.78333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>52479</v>
+        <v>69644.8333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>224266</v>
+        <v>291462.033333333</v>
       </c>
       <c r="N6" t="n">
-        <v>67036</v>
+        <v>80248.9666666667</v>
       </c>
       <c r="O6" t="n">
-        <v>34299</v>
+        <v>41139.8666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>574752</v>
+        <v>784852</v>
       </c>
       <c r="Q6" t="n">
-        <v>2864889</v>
+        <v>3167377</v>
       </c>
       <c r="R6" t="n">
-        <v>1912966</v>
+        <v>2207871</v>
       </c>
       <c r="S6" t="n">
-        <v>1186617</v>
+        <v>1312387</v>
       </c>
       <c r="T6" t="n">
-        <v>12660313.88</v>
+        <v>14058328</v>
       </c>
       <c r="U6" t="n">
-        <v>2538907</v>
+        <v>2837111</v>
       </c>
       <c r="V6" t="n">
-        <v>3582183</v>
+        <v>3748730</v>
       </c>
       <c r="W6" t="n">
-        <v>1797376</v>
+        <v>2196434.08333333</v>
       </c>
       <c r="X6" t="n">
-        <v>1768751</v>
+        <v>1939603.41666667</v>
       </c>
       <c r="Y6" t="n">
-        <v>2047070</v>
+        <v>2032609.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>7274866</v>
+        <v>7426969.01666667</v>
       </c>
       <c r="AA6" t="n">
-        <v>16355043.3</v>
+        <v>17476125.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>2070314</v>
+        <v>2443782.11666667</v>
       </c>
       <c r="AC6" t="n">
-        <v>1396667</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>63551</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>475359</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>199730</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>278970</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1782537</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>294233</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>470694</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>357374</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>272226</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>307541</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>753615</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>2098857</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>223985</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>184116</v>
-      </c>
+        <v>1436727.46666667</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2111.5</v>
+        <v>8170.3333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>104759.1</v>
+        <v>99244.2</v>
       </c>
       <c r="D7" t="n">
-        <v>8836.68</v>
+        <v>9451</v>
       </c>
       <c r="E7" t="n">
-        <v>15734.58333</v>
+        <v>12850.9666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>274575</v>
+        <v>262962.666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>85455.25</v>
+        <v>68042.5</v>
       </c>
       <c r="H7" t="n">
-        <v>57677.57</v>
+        <v>65203.6666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>80497</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>90699.39999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>72228.10000000001</v>
+      </c>
       <c r="K7" t="n">
-        <v>9120.17</v>
+        <v>5666.2</v>
       </c>
       <c r="L7" t="n">
-        <v>53450.4</v>
+        <v>73925.6666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>251909</v>
+        <v>359898.6</v>
       </c>
       <c r="N7" t="n">
-        <v>68595</v>
+        <v>75765.75</v>
       </c>
       <c r="O7" t="n">
-        <v>40246.2</v>
+        <v>41613.4833333333</v>
       </c>
       <c r="P7" t="n">
-        <v>648230.67</v>
+        <v>823465.216666667</v>
       </c>
       <c r="Q7" t="n">
-        <v>3026825.48</v>
+        <v>3111009.38333333</v>
       </c>
       <c r="R7" t="n">
-        <v>1931814.03</v>
+        <v>2355164.26666667</v>
       </c>
       <c r="S7" t="n">
-        <v>1224565.33</v>
+        <v>1224788.9</v>
       </c>
       <c r="T7" t="n">
-        <v>13057495.95</v>
+        <v>14218252.9833333</v>
       </c>
       <c r="U7" t="n">
-        <v>2650759.08</v>
+        <v>2841836.31666667</v>
       </c>
       <c r="V7" t="n">
-        <v>3575301.35</v>
+        <v>3861988.9</v>
       </c>
       <c r="W7" t="n">
-        <v>1942274.95</v>
+        <v>2254773.93333333</v>
       </c>
       <c r="X7" t="n">
-        <v>1745512.22</v>
+        <v>1998761.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2010858.23</v>
+        <v>1953733.73333333</v>
       </c>
       <c r="Z7" t="n">
-        <v>7364316.6</v>
+        <v>7621202.21666667</v>
       </c>
       <c r="AA7" t="n">
-        <v>16753029.4166667</v>
+        <v>17796009.8166667</v>
       </c>
       <c r="AB7" t="n">
-        <v>2264317.95</v>
+        <v>2520624.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>1425749.467</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>73039.42</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>510583.3</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>189402.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>262008.1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1827296</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>308748.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>483514.2</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>388521</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>231442.82</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>292542.5</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>809499</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>2169379</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>285621</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>161754</v>
-      </c>
+        <v>1446914.38333333</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2815</v>
+        <v>1462.83</v>
       </c>
       <c r="C8" t="n">
-        <v>111099.083333333</v>
+        <v>103435.67</v>
       </c>
       <c r="D8" t="n">
-        <v>7614.5</v>
+        <v>17588.5</v>
       </c>
       <c r="E8" t="n">
-        <v>14984</v>
+        <v>10250</v>
       </c>
       <c r="F8" t="n">
-        <v>292062.666666667</v>
+        <v>270579.17</v>
       </c>
       <c r="G8" t="n">
-        <v>91255.5833333333</v>
+        <v>71479</v>
       </c>
       <c r="H8" t="n">
-        <v>64294.5</v>
+        <v>66363.17</v>
       </c>
       <c r="I8" t="n">
-        <v>92092.5333333333</v>
+        <v>89654.89999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>2158</v>
+        <v>63750.42</v>
       </c>
       <c r="K8" t="n">
-        <v>9301.283333333329</v>
+        <v>8651.1</v>
       </c>
       <c r="L8" t="n">
-        <v>56371.7333333333</v>
+        <v>69264.85000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>268458.016666667</v>
+        <v>399992.2</v>
       </c>
       <c r="N8" t="n">
-        <v>67995.95</v>
+        <v>127846.9</v>
       </c>
       <c r="O8" t="n">
-        <v>40538.5166666667</v>
+        <v>40824.03</v>
       </c>
       <c r="P8" t="n">
-        <v>699153.15</v>
+        <v>831976.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>3033050.13333333</v>
+        <v>3258408.23</v>
       </c>
       <c r="R8" t="n">
-        <v>2001769</v>
+        <v>2439732.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1274835.96666667</v>
+        <v>1218477.53</v>
       </c>
       <c r="T8" t="n">
-        <v>13383650.9666667</v>
+        <v>14565000</v>
       </c>
       <c r="U8" t="n">
-        <v>2709968.35</v>
+        <v>2934009.6</v>
       </c>
       <c r="V8" t="n">
-        <v>3664874.36666667</v>
+        <v>3882453.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2022170.66666667</v>
+        <v>2286042.32</v>
       </c>
       <c r="X8" t="n">
-        <v>1828114.16666667</v>
+        <v>2016128.22</v>
       </c>
       <c r="Y8" t="n">
-        <v>2017196.03333333</v>
+        <v>1923281.97</v>
       </c>
       <c r="Z8" t="n">
-        <v>7359529.91666667</v>
+        <v>7651965.45</v>
       </c>
       <c r="AA8" t="n">
-        <v>16985291.0333333</v>
+        <v>17924000</v>
       </c>
       <c r="AB8" t="n">
-        <v>2304049.25</v>
+        <v>2601767.02</v>
       </c>
       <c r="AC8" t="n">
-        <v>1454231</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>73153.75</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>501812.516666667</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>222246.166666667</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>281840.183333333</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1929158.28333333</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>311058.766666667</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>539046.9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>387178</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>285482.333333333</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>290431.783333333</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>799568.283333333</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>2239345.61666667</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>299733.066666667</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>176952.15</v>
-      </c>
+        <v>1445203.03</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4686</v>
+        <v>2005</v>
       </c>
       <c r="C9" t="n">
-        <v>163562</v>
+        <v>57100.33</v>
       </c>
       <c r="D9" t="n">
-        <v>4462</v>
+        <v>19188.67</v>
       </c>
       <c r="E9" t="n">
-        <v>16518</v>
+        <v>9949.83</v>
       </c>
       <c r="F9" t="n">
-        <v>432014</v>
+        <v>180416.17</v>
       </c>
       <c r="G9" t="n">
-        <v>150205</v>
+        <v>44989.17</v>
       </c>
       <c r="H9" t="n">
-        <v>92581</v>
+        <v>47183.17</v>
       </c>
       <c r="I9" t="n">
-        <v>81855</v>
+        <v>78941.22</v>
       </c>
       <c r="J9" t="n">
-        <v>25137</v>
+        <v>359.49</v>
       </c>
       <c r="K9" t="n">
-        <v>7490</v>
+        <v>5801.85</v>
       </c>
       <c r="L9" t="n">
-        <v>48976</v>
+        <v>52900.58</v>
       </c>
       <c r="M9" t="n">
-        <v>270112</v>
+        <v>246272.3</v>
       </c>
       <c r="N9" t="n">
-        <v>69008</v>
+        <v>70208.61</v>
       </c>
       <c r="O9" t="n">
-        <v>37646</v>
+        <v>38060.55</v>
       </c>
       <c r="P9" t="n">
-        <v>770085</v>
+        <v>948162.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>3108653</v>
+        <v>3226311.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2104998</v>
+        <v>2587650.12</v>
       </c>
       <c r="S9" t="n">
-        <v>1259269</v>
+        <v>1330122.32</v>
       </c>
       <c r="T9" t="n">
-        <v>13795460.52</v>
+        <v>14918800</v>
       </c>
       <c r="U9" t="n">
-        <v>2820087</v>
+        <v>2973288.78</v>
       </c>
       <c r="V9" t="n">
-        <v>3732369</v>
+        <v>3853327.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2108917</v>
+        <v>2508151.28</v>
       </c>
       <c r="X9" t="n">
-        <v>1858964</v>
+        <v>2042715.14</v>
       </c>
       <c r="Y9" t="n">
-        <v>1951125</v>
+        <v>2081639.73</v>
       </c>
       <c r="Z9" t="n">
-        <v>7366010</v>
+        <v>7988062.22</v>
       </c>
       <c r="AA9" t="n">
-        <v>17057211.72</v>
+        <v>18810190</v>
       </c>
       <c r="AB9" t="n">
-        <v>2352285</v>
+        <v>2718462.98</v>
       </c>
       <c r="AC9" t="n">
-        <v>1419911</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>89073</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>499611</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>232681</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>279160</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1983499</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>312154</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>570820</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>407454</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>307368</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>292015</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>776080</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>2237960</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>293336</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>161707</v>
-      </c>
+        <v>1471165.57</v>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10455</v>
+        <v>2585</v>
       </c>
       <c r="C10" t="n">
-        <v>135643</v>
+        <v>61226</v>
       </c>
       <c r="D10" t="n">
-        <v>15545</v>
+        <v>19105</v>
       </c>
       <c r="E10" t="n">
-        <v>14555</v>
+        <v>8933</v>
       </c>
       <c r="F10" t="n">
-        <v>342366</v>
+        <v>179752</v>
       </c>
       <c r="G10" t="n">
-        <v>107857</v>
+        <v>43631</v>
       </c>
       <c r="H10" t="n">
-        <v>58311</v>
+        <v>44272</v>
       </c>
       <c r="I10" t="n">
-        <v>85482.01666666671</v>
+        <v>76262</v>
       </c>
       <c r="J10" t="n">
-        <v>9926.566666666669</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>5019.78333333333</v>
+        <v>5139</v>
       </c>
       <c r="L10" t="n">
-        <v>69644.8333333333</v>
+        <v>43059</v>
       </c>
       <c r="M10" t="n">
-        <v>291462.033333333</v>
+        <v>232714</v>
       </c>
       <c r="N10" t="n">
-        <v>80248.9666666667</v>
+        <v>70234</v>
       </c>
       <c r="O10" t="n">
-        <v>41139.8666666667</v>
+        <v>38019</v>
       </c>
       <c r="P10" t="n">
-        <v>784852</v>
+        <v>971618</v>
       </c>
       <c r="Q10" t="n">
-        <v>3167377</v>
+        <v>3257941</v>
       </c>
       <c r="R10" t="n">
-        <v>2207871</v>
+        <v>2842642</v>
       </c>
       <c r="S10" t="n">
-        <v>1312387</v>
+        <v>1359222</v>
       </c>
       <c r="T10" t="n">
-        <v>14058328</v>
+        <v>15267407</v>
       </c>
       <c r="U10" t="n">
-        <v>2837111</v>
+        <v>2994363</v>
       </c>
       <c r="V10" t="n">
-        <v>3748730</v>
+        <v>3841622</v>
       </c>
       <c r="W10" t="n">
-        <v>2196434.08333333</v>
+        <v>2561239</v>
       </c>
       <c r="X10" t="n">
-        <v>1939603.41666667</v>
+        <v>2120012</v>
       </c>
       <c r="Y10" t="n">
-        <v>2032609.8</v>
+        <v>2136678</v>
       </c>
       <c r="Z10" t="n">
-        <v>7426969.01666667</v>
+        <v>8220875</v>
       </c>
       <c r="AA10" t="n">
-        <v>17476125.9</v>
+        <v>19250257</v>
       </c>
       <c r="AB10" t="n">
-        <v>2443782.11666667</v>
+        <v>2789802</v>
       </c>
       <c r="AC10" t="n">
-        <v>1436727.46666667</v>
+        <v>1421652</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
@@ -1651,92 +1701,90 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8170.3333333333</v>
+        <v>1879</v>
       </c>
       <c r="C11" t="n">
-        <v>99244.2</v>
+        <v>65263</v>
       </c>
       <c r="D11" t="n">
-        <v>9451</v>
+        <v>13619</v>
       </c>
       <c r="E11" t="n">
-        <v>12850.9666666667</v>
+        <v>9103</v>
       </c>
       <c r="F11" t="n">
-        <v>262962.666666667</v>
+        <v>180781</v>
       </c>
       <c r="G11" t="n">
-        <v>68042.5</v>
+        <v>40623</v>
       </c>
       <c r="H11" t="n">
-        <v>65203.6666666667</v>
+        <v>50294</v>
       </c>
       <c r="I11" t="n">
-        <v>90699.39999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>72228.10000000001</v>
-      </c>
+        <v>72950</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>5666.2</v>
+        <v>5827</v>
       </c>
       <c r="L11" t="n">
-        <v>73925.6666666667</v>
+        <v>49000</v>
       </c>
       <c r="M11" t="n">
-        <v>359898.6</v>
+        <v>237368</v>
       </c>
       <c r="N11" t="n">
-        <v>75765.75</v>
+        <v>71592</v>
       </c>
       <c r="O11" t="n">
-        <v>41613.4833333333</v>
+        <v>37999</v>
       </c>
       <c r="P11" t="n">
-        <v>823465.216666667</v>
+        <v>1002209</v>
       </c>
       <c r="Q11" t="n">
-        <v>3111009.38333333</v>
+        <v>3332910</v>
       </c>
       <c r="R11" t="n">
-        <v>2355164.26666667</v>
+        <v>3074842</v>
       </c>
       <c r="S11" t="n">
-        <v>1224788.9</v>
+        <v>1344945</v>
       </c>
       <c r="T11" t="n">
-        <v>14218252.9833333</v>
+        <v>15534000</v>
       </c>
       <c r="U11" t="n">
-        <v>2841836.31666667</v>
+        <v>3021475</v>
       </c>
       <c r="V11" t="n">
-        <v>3861988.9</v>
+        <v>3757602</v>
       </c>
       <c r="W11" t="n">
-        <v>2254773.93333333</v>
+        <v>2561957</v>
       </c>
       <c r="X11" t="n">
-        <v>1998761.25</v>
+        <v>2241573</v>
       </c>
       <c r="Y11" t="n">
-        <v>1953733.73333333</v>
+        <v>2119710</v>
       </c>
       <c r="Z11" t="n">
-        <v>7621202.21666667</v>
+        <v>8484507</v>
       </c>
       <c r="AA11" t="n">
-        <v>17796009.8166667</v>
+        <v>19510000</v>
       </c>
       <c r="AB11" t="n">
-        <v>2520624.3</v>
+        <v>2797166</v>
       </c>
       <c r="AC11" t="n">
-        <v>1446914.38333333</v>
+        <v>1305022</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
@@ -1756,92 +1804,90 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1462.83</v>
+        <v>3619.82</v>
       </c>
       <c r="C12" t="n">
-        <v>103435.67</v>
+        <v>60805.73</v>
       </c>
       <c r="D12" t="n">
-        <v>17588.5</v>
+        <v>12925.43</v>
       </c>
       <c r="E12" t="n">
-        <v>10250</v>
+        <v>9030.92</v>
       </c>
       <c r="F12" t="n">
-        <v>270579.17</v>
+        <v>181545.49</v>
       </c>
       <c r="G12" t="n">
-        <v>71479</v>
+        <v>42519.57</v>
       </c>
       <c r="H12" t="n">
-        <v>66363.17</v>
+        <v>52644.02</v>
       </c>
       <c r="I12" t="n">
-        <v>89654.89999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>63750.42</v>
-      </c>
+        <v>73148.27</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>8651.1</v>
+        <v>5628</v>
       </c>
       <c r="L12" t="n">
-        <v>69264.85000000001</v>
+        <v>54246.54</v>
       </c>
       <c r="M12" t="n">
-        <v>399992.2</v>
+        <v>241751.23</v>
       </c>
       <c r="N12" t="n">
-        <v>127846.9</v>
+        <v>72955.5</v>
       </c>
       <c r="O12" t="n">
-        <v>40824.03</v>
+        <v>35772.92</v>
       </c>
       <c r="P12" t="n">
-        <v>831976.83</v>
+        <v>974411.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>3258408.23</v>
+        <v>3338991.18</v>
       </c>
       <c r="R12" t="n">
-        <v>2439732.18</v>
+        <v>3301813.77</v>
       </c>
       <c r="S12" t="n">
-        <v>1218477.53</v>
+        <v>1414110.33</v>
       </c>
       <c r="T12" t="n">
-        <v>14565000</v>
+        <v>15807230.05</v>
       </c>
       <c r="U12" t="n">
-        <v>2934009.6</v>
+        <v>3135478.4</v>
       </c>
       <c r="V12" t="n">
-        <v>3882453.2</v>
+        <v>3642425</v>
       </c>
       <c r="W12" t="n">
-        <v>2286042.32</v>
+        <v>2619993.25</v>
       </c>
       <c r="X12" t="n">
-        <v>2016128.22</v>
+        <v>2267631.97</v>
       </c>
       <c r="Y12" t="n">
-        <v>1923281.97</v>
+        <v>2249658.18</v>
       </c>
       <c r="Z12" t="n">
-        <v>7651965.45</v>
+        <v>8731162.23</v>
       </c>
       <c r="AA12" t="n">
-        <v>17924000</v>
+        <v>19883117.43</v>
       </c>
       <c r="AB12" t="n">
-        <v>2601767.02</v>
+        <v>2855504.27</v>
       </c>
       <c r="AC12" t="n">
-        <v>1445203.03</v>
+        <v>1159167.53</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
@@ -1861,92 +1907,92 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2005</v>
+        <v>3182.18</v>
       </c>
       <c r="C13" t="n">
-        <v>57100.33</v>
+        <v>67049.05</v>
       </c>
       <c r="D13" t="n">
-        <v>19188.67</v>
+        <v>454.839999999997</v>
       </c>
       <c r="E13" t="n">
-        <v>9949.83</v>
+        <v>8148.83</v>
       </c>
       <c r="F13" t="n">
-        <v>180416.17</v>
+        <v>180127.05</v>
       </c>
       <c r="G13" t="n">
-        <v>44989.17</v>
+        <v>36118.83</v>
       </c>
       <c r="H13" t="n">
-        <v>47183.17</v>
+        <v>65173.32</v>
       </c>
       <c r="I13" t="n">
-        <v>78941.22</v>
+        <v>75022.84</v>
       </c>
       <c r="J13" t="n">
-        <v>359.49</v>
+        <v>3988.43</v>
       </c>
       <c r="K13" t="n">
-        <v>5801.85</v>
+        <v>6660.38</v>
       </c>
       <c r="L13" t="n">
-        <v>52900.58</v>
+        <v>52049.06</v>
       </c>
       <c r="M13" t="n">
-        <v>246272.3</v>
+        <v>242742.84</v>
       </c>
       <c r="N13" t="n">
-        <v>70208.61</v>
+        <v>69783.85000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>38060.55</v>
+        <v>35238.28</v>
       </c>
       <c r="P13" t="n">
-        <v>948162.62</v>
+        <v>977790.1800000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>3226311.83</v>
+        <v>3364658.3</v>
       </c>
       <c r="R13" t="n">
-        <v>2587650.12</v>
+        <v>3441435.39</v>
       </c>
       <c r="S13" t="n">
-        <v>1330122.32</v>
+        <v>1434397.27</v>
       </c>
       <c r="T13" t="n">
-        <v>14918800</v>
+        <v>15894888.52</v>
       </c>
       <c r="U13" t="n">
-        <v>2973288.78</v>
+        <v>3133267.35</v>
       </c>
       <c r="V13" t="n">
-        <v>3853327.25</v>
+        <v>3543340.03</v>
       </c>
       <c r="W13" t="n">
-        <v>2508151.28</v>
+        <v>2742200.83</v>
       </c>
       <c r="X13" t="n">
-        <v>2042715.14</v>
+        <v>2311128.77</v>
       </c>
       <c r="Y13" t="n">
-        <v>2081639.73</v>
+        <v>2260299.58</v>
       </c>
       <c r="Z13" t="n">
-        <v>7988062.22</v>
+        <v>8843308.35</v>
       </c>
       <c r="AA13" t="n">
-        <v>18810190</v>
+        <v>20139916.52</v>
       </c>
       <c r="AB13" t="n">
-        <v>2718462.98</v>
+        <v>2888357.92</v>
       </c>
       <c r="AC13" t="n">
-        <v>1471165.57</v>
+        <v>1094621.07</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
@@ -1963,317 +2009,6 @@
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2585</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61226</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19105</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8933</v>
-      </c>
-      <c r="F14" t="n">
-        <v>179752</v>
-      </c>
-      <c r="G14" t="n">
-        <v>43631</v>
-      </c>
-      <c r="H14" t="n">
-        <v>44272</v>
-      </c>
-      <c r="I14" t="n">
-        <v>76262</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5139</v>
-      </c>
-      <c r="L14" t="n">
-        <v>43059</v>
-      </c>
-      <c r="M14" t="n">
-        <v>232714</v>
-      </c>
-      <c r="N14" t="n">
-        <v>70234</v>
-      </c>
-      <c r="O14" t="n">
-        <v>38019</v>
-      </c>
-      <c r="P14" t="n">
-        <v>971618</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3257941</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2842642</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1359222</v>
-      </c>
-      <c r="T14" t="n">
-        <v>15267407</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2994363</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3841622</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2561239</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2120012</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2136678</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8220875</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>19250257</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>2789802</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1421652</v>
-      </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1879</v>
-      </c>
-      <c r="C15" t="n">
-        <v>65263</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13619</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9103</v>
-      </c>
-      <c r="F15" t="n">
-        <v>180781</v>
-      </c>
-      <c r="G15" t="n">
-        <v>40623</v>
-      </c>
-      <c r="H15" t="n">
-        <v>50294</v>
-      </c>
-      <c r="I15" t="n">
-        <v>72950</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>5827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>49000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>237368</v>
-      </c>
-      <c r="N15" t="n">
-        <v>71592</v>
-      </c>
-      <c r="O15" t="n">
-        <v>37999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1002209</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3332910</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3074842</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1344945</v>
-      </c>
-      <c r="T15" t="n">
-        <v>15534000</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3021475</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3757602</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2561957</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2241573</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2119710</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8484507</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19510000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2797166</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1305022</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3619.82</v>
-      </c>
-      <c r="C16" t="n">
-        <v>60805.73</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12925.43</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9030.92</v>
-      </c>
-      <c r="F16" t="n">
-        <v>181545.49</v>
-      </c>
-      <c r="G16" t="n">
-        <v>42519.57</v>
-      </c>
-      <c r="H16" t="n">
-        <v>52644.02</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73148.27</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>5628</v>
-      </c>
-      <c r="L16" t="n">
-        <v>54246.54</v>
-      </c>
-      <c r="M16" t="n">
-        <v>241751.23</v>
-      </c>
-      <c r="N16" t="n">
-        <v>72955.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>35772.92</v>
-      </c>
-      <c r="P16" t="n">
-        <v>974411.37</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3338991.18</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3301813.77</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1414110.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>15807230.05</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3135478.4</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3642425</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2619993.25</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2267631.97</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2249658.18</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>8731162.23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19883117.43</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2855504.27</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1159167.53</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
